--- a/molecules-lists/dossed-cassette-dugs-incomplete.xlsx
+++ b/molecules-lists/dossed-cassette-dugs-incomplete.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tm6\Documents\HCP Anywhere\CRUK Data processing study\CassetteDosed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\git-hub-repositories\adhoc-data-processing-pipeline\molecules-lists\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46458F05-7B94-4800-A443-B2F5934FA442}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="930" yWindow="0" windowWidth="27870" windowHeight="12420"/>
+    <workbookView xWindow="960" yWindow="-108" windowWidth="22188" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Moxifloxacin</t>
   </si>
@@ -48,15 +55,21 @@
   </si>
   <si>
     <t>Desmethylerlotinib</t>
+  </si>
+  <si>
+    <t>Hydroxyolanzapine</t>
+  </si>
+  <si>
+    <t>Hydroxyerlotinib</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="171" formatCode="0.00000"/>
-    <numFmt numFmtId="172" formatCode="0.000000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
+    <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -94,11 +107,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="171" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -378,67 +392,66 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="1"/>
-    <col min="7" max="7" width="10.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="2" max="2" width="11.88671875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9.109375" style="1"/>
+    <col min="6" max="6" width="10.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" s="3">
+        <v>298.12521800000002</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>312.14086900000001</v>
+      </c>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="3">
+        <v>328.13578197200002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="3">
+      <c r="B4" s="3">
         <v>379.15319799999997</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="3">
-        <v>298.12521800000002</v>
-      </c>
-      <c r="D2" s="3"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3">
+      <c r="B5" s="3">
         <v>393.16885600000001</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="3">
-        <v>501.28790300000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3">
-        <v>487.67284000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>0</v>
       </c>
@@ -446,25 +459,49 @@
         <v>401.17508400000003</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B7" s="3">
-        <v>312.14086900000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+        <v>471.31372099999999</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3">
-        <v>471.31372099999999</v>
-      </c>
+        <v>487.308074965</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B9" s="3">
+        <v>487.67284000000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>501.28790300000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" s="4"/>
     </row>
   </sheetData>
-  <sortState ref="A1:B14">
-    <sortCondition ref="A1"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A1:B12">
+    <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
